--- a/NformTester/NformTester/Keywordscripts/600.60.20.100_DisabledForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.100_DisabledForGlobalStatusPolling.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8009" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8009" uniqueCount="898">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4014,6 +4014,9 @@
   <si>
     <t>SendCommandToSimulator</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globally_disabled_txt</t>
   </si>
 </sst>
 </file>
@@ -4535,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5272,7 +5275,7 @@
         <v>571</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>586</v>
+        <v>897</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>

--- a/NformTester/NformTester/Keywordscripts/600.60.20.100_DisabledForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.100_DisabledForGlobalStatusPolling.xlsx
@@ -3937,14 +3937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_ChangeData$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4017,6 +4009,12 @@
   </si>
   <si>
     <t>Globally_disabled_txt</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
   </si>
 </sst>
 </file>
@@ -4538,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4556,10 +4554,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4600,10 +4598,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4624,10 +4622,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4658,10 +4656,10 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4682,7 +4680,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -4707,7 +4705,7 @@
         <v>873</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>847</v>
@@ -4722,10 +4720,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4776,7 +4774,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4804,7 +4802,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5231,7 +5229,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5275,7 +5273,7 @@
         <v>571</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>
@@ -5384,18 +5382,18 @@
         <v>853</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="9" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="I31" s="9">
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5477,7 +5475,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>2</v>
@@ -5665,13 +5663,13 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="9" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="I43" s="9">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -6199,13 +6197,13 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="9" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="I66" s="9">
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6305,7 +6303,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>19</v>
@@ -6475,13 +6473,13 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="9" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="I78" s="9">
         <v>1</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6581,7 +6579,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>19</v>
@@ -30236,39 +30234,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -30276,10 +30274,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -30292,13 +30290,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B9" s="3"/>
     </row>
